--- a/Data_Driven/RegisterAuthenticate/SecB_RegisterAuthen_data.xlsx
+++ b/Data_Driven/RegisterAuthenticate/SecB_RegisterAuthen_data.xlsx
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -409,13 +409,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col width="21.7109375" customWidth="1" min="1" max="1"/>
-    <col width="17.5703125" customWidth="1" min="4" max="4"/>
+    <col width="21.75" customWidth="1" min="1" max="1"/>
+    <col width="17.625" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
